--- a/SMARTS/Data_Dictionaries/Stormwater_Violations_DataDictionary.xlsx
+++ b/SMARTS/Data_Dictionaries/Stormwater_Violations_DataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\Stormwater\_SMARTS_Data_Download_Automation\Data_Dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/SMARTS/Data_Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468A10E-5F62-4581-8A53-29C7B1849AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{4468A10E-5F62-4581-8A53-29C7B1849AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD18787-7033-47D1-9D32-B6E86F9D0787}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73A369D3-E501-4417-A57B-32D283C67892}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73A369D3-E501-4417-A57B-32D283C67892}"/>
   </bookViews>
   <sheets>
     <sheet name="Violations" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="226">
   <si>
     <t>Field Title</t>
   </si>
@@ -1465,9 +1465,6 @@
     <t>System-generated unique identifier for the violation.</t>
   </si>
   <si>
-    <t>Describes how or where the violation was determined. "Annual Report" is for violations discovered in an annual report. "Inspection" is for violations discovered during an inspection. "Report" is for violations discovered from other miscellaneous reports. "Undetermined" is used to classify source that does not match the above types.</t>
-  </si>
-  <si>
     <t>The type of violation priority as defined by the Water Boards Enforcement Policy.  "1" – Major, "2" – Moderate, and "3" - Minor are defined in the 2010 Enforce Policy. “Yes” and “No” were entries from the 2002 Enforcement Policy and are no longer used.  Not Authorized to Assign Rank is used when the actual rank cannot be determined by the person performing the data entry. It can only be used temporarily.</t>
   </si>
   <si>
@@ -1477,9 +1474,6 @@
     <t>Indicates if the violation is exempt from the Minimum Mandatory Penalty (MMP) process or not.  “Y” is for yes and “N” is for no.</t>
   </si>
   <si>
-    <t>Status of violation. “Violation” - violations that require no further action; “Potential” - used for automatically generated violations and may also be used for violations entered that must be verified by staff; “Dismissed” - used to dismiss violation or potential violation</t>
-  </si>
-  <si>
     <t>Facility/Site Latitude</t>
   </si>
   <si>
@@ -1490,13 +1484,40 @@
   </si>
   <si>
     <t>Unit of measure of the facility/site size (Acres or SqFt).</t>
+  </si>
+  <si>
+    <t>Describes how or where the violation was determined: 
+- "Annual Report" is for violations discovered in an annual report. 
+- "Inspection" is for violations discovered during an inspection. 
+- "Report" is for violations discovered from other miscellaneous reports. 
+- "Undetermined" is used to classify source that does not match the above types.</t>
+  </si>
+  <si>
+    <t>Regional Water Quality Control Board office that has primary responsibility for regulation of the facility: 
+- 1: North Coast
+- 2: San Francisco Bay
+- 3: Central Coast
+- 4: Los Angeles
+- 5F: Central Valley (Fresno)
+- 5R: Central Valley (Redding)
+- 5S: Central Valley (Sacramento)
+- 6: Lahontan
+- 7: Colorado River
+- 8: Santa Ana
+- 9: San Diego</t>
+  </si>
+  <si>
+    <t>Status of violation:
+- Violation: Violations that require no further action.
+- Potential: Used for automatically generated violations and may also be used for violations entered that must be verified by staff.
+- Dismissed: Used to dismiss violation or potential violation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,47 +1737,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1774,10 +1794,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1840,10 +1860,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1881,7 +1905,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1987,7 +2011,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2129,7 +2153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2144,520 +2168,520 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="107.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="107.5546875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="18" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="D14" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60">
-      <c r="A9" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="D15" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="D16" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="C17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D18" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="C22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="D23" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="C26" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D28" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="C31" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="17" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45">
-      <c r="A16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="D32" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
-      <c r="A18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60">
-      <c r="A19" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B41:B1048576 B1:B33">
+  <conditionalFormatting sqref="C1:C33 C41:C1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"numeric"</formula>
     </cfRule>
@@ -2669,7 +2693,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{4E0F304F-3107-4AAF-A837-F7B5281CC604}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C33" xr:uid="{4E0F304F-3107-4AAF-A837-F7B5281CC604}">
       <formula1>"text, numeric, timestamp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2686,22 +2710,22 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="55" style="23" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="55" style="22" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="26" style="11" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" style="11" customWidth="1"/>
-    <col min="15" max="17" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="80.28515625" customWidth="1"/>
+    <col min="9" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="63.5546875" customWidth="1"/>
+    <col min="15" max="17" width="22.5546875" customWidth="1"/>
+    <col min="18" max="18" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -2711,7 +2735,7 @@
       <c r="C1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2748,23 +2772,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="75.75" thickBot="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12" t="str" cm="1">
+      <c r="B2" s="11" t="str" cm="1">
         <f t="array" ref="B2">IF(IFERROR(IFERROR(INDEX(J:J,$F2),INDEX(Q:Q,$G2)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F2),INDEX(Q:Q,$G2)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C2" s="13" t="str" cm="1">
+      <c r="C2" s="12" t="str" cm="1">
         <f t="array" ref="C2">IF(IFERROR(IFERROR(INDEX(K:K,$F2),INDEX(O:O,$G2)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F2),INDEX(O:O,$G2)),""))</f>
         <v>Waste Discharge ID</v>
       </c>
-      <c r="D2" s="22" t="str" cm="1">
+      <c r="D2" s="21" t="str" cm="1">
         <f t="array" ref="D2">IF(IFERROR(IFERROR(INDEX(L:L,$F2),INDEX(R:R,$G2)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F2),INDEX(R:R,$G2)),""))</f>
@@ -2793,36 +2817,36 @@
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="str" cm="1">
+      <c r="B3" s="11" t="str" cm="1">
         <f t="array" ref="B3">IF(IFERROR(IFERROR(INDEX(J:J,$F3),INDEX(Q:Q,$G3)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F3),INDEX(Q:Q,$G3)),""))</f>
         <v>Number</v>
       </c>
-      <c r="C3" s="13" t="str" cm="1">
+      <c r="C3" s="12" t="str" cm="1">
         <f t="array" ref="C3">IF(IFERROR(IFERROR(INDEX(K:K,$F3),INDEX(O:O,$G3)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F3),INDEX(O:O,$G3)),""))</f>
         <v>Regulatory Measure ID (Application ID)</v>
       </c>
-      <c r="D3" s="22" t="str" cm="1">
+      <c r="D3" s="21" t="str" cm="1">
         <f t="array" ref="D3">IF(IFERROR(IFERROR(INDEX(L:L,$F3),INDEX(R:R,$G3)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F3),INDEX(R:R,$G3)),""))</f>
@@ -2851,36 +2875,36 @@
       <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="12" t="str" cm="1">
+      <c r="B4" s="11" t="str" cm="1">
         <f t="array" ref="B4">IF(IFERROR(IFERROR(INDEX(J:J,$F4),INDEX(Q:Q,$G4)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F4),INDEX(Q:Q,$G4)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C4" s="13" t="str" cm="1">
+      <c r="C4" s="12" t="str" cm="1">
         <f t="array" ref="C4">IF(IFERROR(IFERROR(INDEX(K:K,$F4),INDEX(O:O,$G4)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F4),INDEX(O:O,$G4)),""))</f>
         <v>Violation ID</v>
       </c>
-      <c r="D4" s="22" t="str" cm="1">
+      <c r="D4" s="21" t="str" cm="1">
         <f t="array" ref="D4">IF(IFERROR(IFERROR(INDEX(L:L,$F4),INDEX(R:R,$G4)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F4),INDEX(R:R,$G4)),""))</f>
@@ -2910,36 +2934,36 @@
       <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="105.75" thickBot="1">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:18" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="12" t="str" cm="1">
+      <c r="B5" s="11" t="str" cm="1">
         <f t="array" ref="B5">IF(IFERROR(IFERROR(INDEX(J:J,$F5),INDEX(Q:Q,$G5)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F5),INDEX(Q:Q,$G5)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C5" s="13" t="str" cm="1">
+      <c r="C5" s="12" t="str" cm="1">
         <f t="array" ref="C5">IF(IFERROR(IFERROR(INDEX(K:K,$F5),INDEX(O:O,$G5)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F5),INDEX(O:O,$G5)),""))</f>
         <v>Violation Source</v>
       </c>
-      <c r="D5" s="22" t="str" cm="1">
+      <c r="D5" s="21" t="str" cm="1">
         <f t="array" ref="D5">IF(IFERROR(IFERROR(INDEX(L:L,$F5),INDEX(R:R,$G5)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F5),INDEX(R:R,$G5)),""))</f>
@@ -2965,36 +2989,36 @@
         <v>15</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="12" t="str" cm="1">
+      <c r="B6" s="11" t="str" cm="1">
         <f t="array" ref="B6">IF(IFERROR(IFERROR(INDEX(J:J,$F6),INDEX(Q:Q,$G6)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F6),INDEX(Q:Q,$G6)),""))</f>
         <v/>
       </c>
-      <c r="C6" s="13" t="str" cm="1">
+      <c r="C6" s="12" t="str" cm="1">
         <f t="array" ref="C6">IF(IFERROR(IFERROR(INDEX(K:K,$F6),INDEX(O:O,$G6)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F6),INDEX(O:O,$G6)),""))</f>
         <v/>
       </c>
-      <c r="D6" s="22" t="str" cm="1">
+      <c r="D6" s="21" t="str" cm="1">
         <f t="array" ref="D6">IF(IFERROR(IFERROR(INDEX(L:L,$F6),INDEX(R:R,$G6)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F6),INDEX(R:R,$G6)),""))</f>
@@ -3023,36 +3047,36 @@
       <c r="L6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="12" t="str" cm="1">
+      <c r="B7" s="11" t="str" cm="1">
         <f t="array" ref="B7">IF(IFERROR(IFERROR(INDEX(J:J,$F7),INDEX(Q:Q,$G7)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F7),INDEX(Q:Q,$G7)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C7" s="13" t="str" cm="1">
+      <c r="C7" s="12" t="str" cm="1">
         <f t="array" ref="C7">IF(IFERROR(IFERROR(INDEX(K:K,$F7),INDEX(O:O,$G7)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F7),INDEX(O:O,$G7)),""))</f>
         <v>Violation Type</v>
       </c>
-      <c r="D7" s="22" t="str" cm="1">
+      <c r="D7" s="21" t="str" cm="1">
         <f t="array" ref="D7">IF(IFERROR(IFERROR(INDEX(L:L,$F7),INDEX(R:R,$G7)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F7),INDEX(R:R,$G7)),""))</f>
@@ -3075,36 +3099,36 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
       <c r="L7" s="4"/>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="90.75" thickBot="1">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="12" t="str" cm="1">
+      <c r="B8" s="11" t="str" cm="1">
         <f t="array" ref="B8">IF(IFERROR(IFERROR(INDEX(J:J,$F8),INDEX(Q:Q,$G8)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F8),INDEX(Q:Q,$G8)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C8" s="13" t="str" cm="1">
+      <c r="C8" s="12" t="str" cm="1">
         <f t="array" ref="C8">IF(IFERROR(IFERROR(INDEX(K:K,$F8),INDEX(O:O,$G8)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F8),INDEX(O:O,$G8)),""))</f>
         <v>Serious Violation</v>
       </c>
-      <c r="D8" s="22" t="str" cm="1">
+      <c r="D8" s="21" t="str" cm="1">
         <f t="array" ref="D8">IF(IFERROR(IFERROR(INDEX(L:L,$F8),INDEX(R:R,$G8)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F8),INDEX(R:R,$G8)),""))</f>
@@ -3134,36 +3158,36 @@
       <c r="L8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="120.75" thickBot="1">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:18" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="12" t="str" cm="1">
+      <c r="B9" s="11" t="str" cm="1">
         <f t="array" ref="B9">IF(IFERROR(IFERROR(INDEX(J:J,$F9),INDEX(Q:Q,$G9)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F9),INDEX(Q:Q,$G9)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C9" s="13" t="str" cm="1">
+      <c r="C9" s="12" t="str" cm="1">
         <f t="array" ref="C9">IF(IFERROR(IFERROR(INDEX(K:K,$F9),INDEX(O:O,$G9)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F9),INDEX(O:O,$G9)),""))</f>
         <v>Violation Priority</v>
       </c>
-      <c r="D9" s="22" t="str" cm="1">
+      <c r="D9" s="21" t="str" cm="1">
         <f t="array" ref="D9">IF(IFERROR(IFERROR(INDEX(L:L,$F9),INDEX(R:R,$G9)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F9),INDEX(R:R,$G9)),""))</f>
@@ -3193,36 +3217,36 @@
       <c r="L9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="45.75" thickBot="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="12" t="str" cm="1">
+      <c r="B10" s="11" t="str" cm="1">
         <f t="array" ref="B10">IF(IFERROR(IFERROR(INDEX(J:J,$F10),INDEX(Q:Q,$G10)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F10),INDEX(Q:Q,$G10)),""))</f>
         <v>Date &amp; Time</v>
       </c>
-      <c r="C10" s="13" t="str" cm="1">
+      <c r="C10" s="12" t="str" cm="1">
         <f t="array" ref="C10">IF(IFERROR(IFERROR(INDEX(K:K,$F10),INDEX(O:O,$G10)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F10),INDEX(O:O,$G10)),""))</f>
         <v>Violation Date</v>
       </c>
-      <c r="D10" s="22" t="str" cm="1">
+      <c r="D10" s="21" t="str" cm="1">
         <f t="array" ref="D10">IF(IFERROR(IFERROR(INDEX(L:L,$F10),INDEX(R:R,$G10)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F10),INDEX(R:R,$G10)),""))</f>
@@ -3252,36 +3276,36 @@
       <c r="L10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="12" t="str" cm="1">
+      <c r="B11" s="11" t="str" cm="1">
         <f t="array" ref="B11">IF(IFERROR(IFERROR(INDEX(J:J,$F11),INDEX(Q:Q,$G11)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F11),INDEX(Q:Q,$G11)),""))</f>
         <v/>
       </c>
-      <c r="C11" s="13" t="str" cm="1">
+      <c r="C11" s="12" t="str" cm="1">
         <f t="array" ref="C11">IF(IFERROR(IFERROR(INDEX(K:K,$F11),INDEX(O:O,$G11)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F11),INDEX(O:O,$G11)),""))</f>
         <v/>
       </c>
-      <c r="D11" s="22" t="str" cm="1">
+      <c r="D11" s="21" t="str" cm="1">
         <f t="array" ref="D11">IF(IFERROR(IFERROR(INDEX(L:L,$F11),INDEX(R:R,$G11)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F11),INDEX(R:R,$G11)),""))</f>
@@ -3310,36 +3334,36 @@
       <c r="L11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="12" t="str" cm="1">
+      <c r="B12" s="11" t="str" cm="1">
         <f t="array" ref="B12">IF(IFERROR(IFERROR(INDEX(J:J,$F12),INDEX(Q:Q,$G12)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F12),INDEX(Q:Q,$G12)),""))</f>
         <v/>
       </c>
-      <c r="C12" s="13" t="str" cm="1">
+      <c r="C12" s="12" t="str" cm="1">
         <f t="array" ref="C12">IF(IFERROR(IFERROR(INDEX(K:K,$F12),INDEX(O:O,$G12)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F12),INDEX(O:O,$G12)),""))</f>
         <v/>
       </c>
-      <c r="D12" s="22" t="str" cm="1">
+      <c r="D12" s="21" t="str" cm="1">
         <f t="array" ref="D12">IF(IFERROR(IFERROR(INDEX(L:L,$F12),INDEX(R:R,$G12)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F12),INDEX(R:R,$G12)),""))</f>
@@ -3368,36 +3392,36 @@
       <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="12" t="str" cm="1">
+      <c r="B13" s="11" t="str" cm="1">
         <f t="array" ref="B13">IF(IFERROR(IFERROR(INDEX(J:J,$F13),INDEX(Q:Q,$G13)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F13),INDEX(Q:Q,$G13)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C13" s="13" t="str" cm="1">
+      <c r="C13" s="12" t="str" cm="1">
         <f t="array" ref="C13">IF(IFERROR(IFERROR(INDEX(K:K,$F13),INDEX(O:O,$G13)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F13),INDEX(O:O,$G13)),""))</f>
         <v>Exempt for MMP</v>
       </c>
-      <c r="D13" s="22" t="str" cm="1">
+      <c r="D13" s="21" t="str" cm="1">
         <f t="array" ref="D13">IF(IFERROR(IFERROR(INDEX(L:L,$F13),INDEX(R:R,$G13)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F13),INDEX(R:R,$G13)),""))</f>
@@ -3421,36 +3445,36 @@
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="4"/>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="12" t="str" cm="1">
+      <c r="B14" s="11" t="str" cm="1">
         <f t="array" ref="B14">IF(IFERROR(IFERROR(INDEX(J:J,$F14),INDEX(Q:Q,$G14)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F14),INDEX(Q:Q,$G14)),""))</f>
         <v/>
       </c>
-      <c r="C14" s="13" t="str" cm="1">
+      <c r="C14" s="12" t="str" cm="1">
         <f t="array" ref="C14">IF(IFERROR(IFERROR(INDEX(K:K,$F14),INDEX(O:O,$G14)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F14),INDEX(O:O,$G14)),""))</f>
         <v/>
       </c>
-      <c r="D14" s="22" t="str" cm="1">
+      <c r="D14" s="21" t="str" cm="1">
         <f t="array" ref="D14">IF(IFERROR(IFERROR(INDEX(L:L,$F14),INDEX(R:R,$G14)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F14),INDEX(R:R,$G14)),""))</f>
@@ -3479,37 +3503,37 @@
       <c r="L14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="12" t="str" cm="1">
+      <c r="B15" s="11" t="str" cm="1">
         <f t="array" ref="B15">IF(IFERROR(IFERROR(INDEX(J:J,$F15),INDEX(Q:Q,$G15)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F15),INDEX(Q:Q,$G15)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C15" s="13" t="str" cm="1">
+      <c r="C15" s="12" t="str" cm="1">
         <f t="array" ref="C15">IF(IFERROR(IFERROR(INDEX(K:K,$F15),INDEX(O:O,$G15)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F15),INDEX(O:O,$G15)),""))</f>
         <v>Violation
 Description</v>
       </c>
-      <c r="D15" s="22" t="str" cm="1">
+      <c r="D15" s="21" t="str" cm="1">
         <f t="array" ref="D15">IF(IFERROR(IFERROR(INDEX(L:L,$F15),INDEX(R:R,$G15)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F15),INDEX(R:R,$G15)),""))</f>
@@ -3538,36 +3562,36 @@
       <c r="L15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="90.75" thickBot="1">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="12" t="str" cm="1">
+      <c r="B16" s="11" t="str" cm="1">
         <f t="array" ref="B16">IF(IFERROR(IFERROR(INDEX(J:J,$F16),INDEX(Q:Q,$G16)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F16),INDEX(Q:Q,$G16)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C16" s="13" t="str" cm="1">
+      <c r="C16" s="12" t="str" cm="1">
         <f t="array" ref="C16">IF(IFERROR(IFERROR(INDEX(K:K,$F16),INDEX(O:O,$G16)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F16),INDEX(O:O,$G16)),""))</f>
         <v>Violation Status</v>
       </c>
-      <c r="D16" s="22" t="str" cm="1">
+      <c r="D16" s="21" t="str" cm="1">
         <f t="array" ref="D16">IF(IFERROR(IFERROR(INDEX(L:L,$F16),INDEX(R:R,$G16)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F16),INDEX(R:R,$G16)),""))</f>
@@ -3597,36 +3621,36 @@
       <c r="L16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P16" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="12" t="str" cm="1">
+      <c r="B17" s="11" t="str" cm="1">
         <f t="array" ref="B17">IF(IFERROR(IFERROR(INDEX(J:J,$F17),INDEX(Q:Q,$G17)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F17),INDEX(Q:Q,$G17)),""))</f>
         <v/>
       </c>
-      <c r="C17" s="13" t="str" cm="1">
+      <c r="C17" s="12" t="str" cm="1">
         <f t="array" ref="C17">IF(IFERROR(IFERROR(INDEX(K:K,$F17),INDEX(O:O,$G17)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F17),INDEX(O:O,$G17)),""))</f>
         <v/>
       </c>
-      <c r="D17" s="22" t="str" cm="1">
+      <c r="D17" s="21" t="str" cm="1">
         <f t="array" ref="D17">IF(IFERROR(IFERROR(INDEX(L:L,$F17),INDEX(R:R,$G17)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F17),INDEX(R:R,$G17)),""))</f>
@@ -3655,36 +3679,36 @@
       <c r="L17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="P17" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="R17" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="12" t="str" cm="1">
+      <c r="B18" s="11" t="str" cm="1">
         <f t="array" ref="B18">IF(IFERROR(IFERROR(INDEX(J:J,$F18),INDEX(Q:Q,$G18)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F18),INDEX(Q:Q,$G18)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C18" s="13" t="str" cm="1">
+      <c r="C18" s="12" t="str" cm="1">
         <f t="array" ref="C18">IF(IFERROR(IFERROR(INDEX(K:K,$F18),INDEX(O:O,$G18)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F18),INDEX(O:O,$G18)),""))</f>
         <v>Regulatory Measure Type (Permit Type)</v>
       </c>
-      <c r="D18" s="22" t="str" cm="1">
+      <c r="D18" s="21" t="str" cm="1">
         <f t="array" ref="D18">IF(IFERROR(IFERROR(INDEX(L:L,$F18),INDEX(R:R,$G18)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F18),INDEX(R:R,$G18)),""))</f>
@@ -3713,36 +3737,36 @@
       <c r="L18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="Q18" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="12" t="str" cm="1">
+      <c r="B19" s="11" t="str" cm="1">
         <f t="array" ref="B19">IF(IFERROR(IFERROR(INDEX(J:J,$F19),INDEX(Q:Q,$G19)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F19),INDEX(Q:Q,$G19)),""))</f>
         <v/>
       </c>
-      <c r="C19" s="13" t="str" cm="1">
+      <c r="C19" s="12" t="str" cm="1">
         <f t="array" ref="C19">IF(IFERROR(IFERROR(INDEX(K:K,$F19),INDEX(O:O,$G19)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F19),INDEX(O:O,$G19)),""))</f>
         <v/>
       </c>
-      <c r="D19" s="22" t="str" cm="1">
+      <c r="D19" s="21" t="str" cm="1">
         <f t="array" ref="D19">IF(IFERROR(IFERROR(INDEX(L:L,$F19),INDEX(R:R,$G19)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F19),INDEX(R:R,$G19)),""))</f>
@@ -3771,36 +3795,36 @@
       <c r="L19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R19" s="24" t="s">
+      <c r="R19" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="12" t="str" cm="1">
+      <c r="B20" s="11" t="str" cm="1">
         <f t="array" ref="B20">IF(IFERROR(IFERROR(INDEX(J:J,$F20),INDEX(Q:Q,$G20)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F20),INDEX(Q:Q,$G20)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C20" s="13" t="str" cm="1">
+      <c r="C20" s="12" t="str" cm="1">
         <f t="array" ref="C20">IF(IFERROR(IFERROR(INDEX(K:K,$F20),INDEX(O:O,$G20)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F20),INDEX(O:O,$G20)),""))</f>
         <v>Facility/Site Name</v>
       </c>
-      <c r="D20" s="22" t="str" cm="1">
+      <c r="D20" s="21" t="str" cm="1">
         <f t="array" ref="D20">IF(IFERROR(IFERROR(INDEX(L:L,$F20),INDEX(R:R,$G20)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F20),INDEX(R:R,$G20)),""))</f>
@@ -3817,42 +3841,42 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="4"/>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="P20" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R20" s="24" t="s">
+      <c r="R20" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="39" customHeight="1" thickBot="1">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:18" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="12" t="str" cm="1">
+      <c r="B21" s="11" t="str" cm="1">
         <f t="array" ref="B21">IF(IFERROR(IFERROR(INDEX(J:J,$F21),INDEX(Q:Q,$G21)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F21),INDEX(Q:Q,$G21)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C21" s="13" t="str" cm="1">
+      <c r="C21" s="12" t="str" cm="1">
         <f t="array" ref="C21">IF(IFERROR(IFERROR(INDEX(K:K,$F21),INDEX(O:O,$G21)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F21),INDEX(O:O,$G21)),""))</f>
         <v>Facility/Site Address</v>
       </c>
-      <c r="D21" s="22" t="str" cm="1">
+      <c r="D21" s="21" t="str" cm="1">
         <f t="array" ref="D21">IF(IFERROR(IFERROR(INDEX(L:L,$F21),INDEX(R:R,$G21)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F21),INDEX(R:R,$G21)),""))</f>
@@ -3869,42 +3893,42 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="4"/>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="12" t="str" cm="1">
+      <c r="B22" s="11" t="str" cm="1">
         <f t="array" ref="B22">IF(IFERROR(IFERROR(INDEX(J:J,$F22),INDEX(Q:Q,$G22)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F22),INDEX(Q:Q,$G22)),""))</f>
         <v/>
       </c>
-      <c r="C22" s="13" t="str" cm="1">
+      <c r="C22" s="12" t="str" cm="1">
         <f t="array" ref="C22">IF(IFERROR(IFERROR(INDEX(K:K,$F22),INDEX(O:O,$G22)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F22),INDEX(O:O,$G22)),""))</f>
         <v/>
       </c>
-      <c r="D22" s="22" t="str" cm="1">
+      <c r="D22" s="21" t="str" cm="1">
         <f t="array" ref="D22">IF(IFERROR(IFERROR(INDEX(L:L,$F22),INDEX(R:R,$G22)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F22),INDEX(R:R,$G22)),""))</f>
@@ -3921,42 +3945,42 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>50</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="P22" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="90.75" thickBot="1">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="12" t="str" cm="1">
+      <c r="B23" s="11" t="str" cm="1">
         <f t="array" ref="B23">IF(IFERROR(IFERROR(INDEX(J:J,$F23),INDEX(Q:Q,$G23)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F23),INDEX(Q:Q,$G23)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C23" s="13" t="str" cm="1">
+      <c r="C23" s="12" t="str" cm="1">
         <f t="array" ref="C23">IF(IFERROR(IFERROR(INDEX(K:K,$F23),INDEX(O:O,$G23)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F23),INDEX(O:O,$G23)),""))</f>
         <v>Facility/Site City</v>
       </c>
-      <c r="D23" s="22" t="str" cm="1">
+      <c r="D23" s="21" t="str" cm="1">
         <f t="array" ref="D23">IF(IFERROR(IFERROR(INDEX(L:L,$F23),INDEX(R:R,$G23)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F23),INDEX(R:R,$G23)),""))</f>
@@ -3973,42 +3997,42 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>51</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="12" t="str" cm="1">
+      <c r="B24" s="11" t="str" cm="1">
         <f t="array" ref="B24">IF(IFERROR(IFERROR(INDEX(J:J,$F24),INDEX(Q:Q,$G24)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F24),INDEX(Q:Q,$G24)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C24" s="13" t="str" cm="1">
+      <c r="C24" s="12" t="str" cm="1">
         <f t="array" ref="C24">IF(IFERROR(IFERROR(INDEX(K:K,$F24),INDEX(O:O,$G24)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F24),INDEX(O:O,$G24)),""))</f>
         <v>Facility/Site State</v>
       </c>
-      <c r="D24" s="22" t="str" cm="1">
+      <c r="D24" s="21" t="str" cm="1">
         <f t="array" ref="D24">IF(IFERROR(IFERROR(INDEX(L:L,$F24),INDEX(R:R,$G24)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F24),INDEX(R:R,$G24)),""))</f>
@@ -4025,42 +4049,42 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>52</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
-      <c r="O24" s="24" t="s">
+      <c r="O24" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="P24" s="26" t="s">
+      <c r="P24" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="45.75" thickBot="1">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="12" t="str" cm="1">
+      <c r="B25" s="11" t="str" cm="1">
         <f t="array" ref="B25">IF(IFERROR(IFERROR(INDEX(J:J,$F25),INDEX(Q:Q,$G25)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F25),INDEX(Q:Q,$G25)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C25" s="13" t="str" cm="1">
+      <c r="C25" s="12" t="str" cm="1">
         <f t="array" ref="C25">IF(IFERROR(IFERROR(INDEX(K:K,$F25),INDEX(O:O,$G25)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F25),INDEX(O:O,$G25)),""))</f>
         <v>Facility/Site Zip</v>
       </c>
-      <c r="D25" s="22" t="str" cm="1">
+      <c r="D25" s="21" t="str" cm="1">
         <f t="array" ref="D25">IF(IFERROR(IFERROR(INDEX(L:L,$F25),INDEX(R:R,$G25)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F25),INDEX(R:R,$G25)),""))</f>
@@ -4089,36 +4113,36 @@
       <c r="L25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="O25" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P25" s="26" t="s">
+      <c r="P25" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="Q25" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="75.75" thickBot="1">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="12" t="str" cm="1">
+      <c r="B26" s="11" t="str" cm="1">
         <f t="array" ref="B26">IF(IFERROR(IFERROR(INDEX(J:J,$F26),INDEX(Q:Q,$G26)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F26),INDEX(Q:Q,$G26)),""))</f>
         <v>Number</v>
       </c>
-      <c r="C26" s="13" t="str" cm="1">
+      <c r="C26" s="12" t="str" cm="1">
         <f t="array" ref="C26">IF(IFERROR(IFERROR(INDEX(K:K,$F26),INDEX(O:O,$G26)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F26),INDEX(O:O,$G26)),""))</f>
         <v>Latitude</v>
       </c>
-      <c r="D26" s="22" t="str" cm="1">
+      <c r="D26" s="21" t="str" cm="1">
         <f t="array" ref="D26">IF(IFERROR(IFERROR(INDEX(L:L,$F26),INDEX(R:R,$G26)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F26),INDEX(R:R,$G26)),""))</f>
@@ -4147,36 +4171,36 @@
       <c r="L26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="O26" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="Q26" s="24" t="s">
+      <c r="Q26" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="12" t="str" cm="1">
+      <c r="B27" s="11" t="str" cm="1">
         <f t="array" ref="B27">IF(IFERROR(IFERROR(INDEX(J:J,$F27),INDEX(Q:Q,$G27)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F27),INDEX(Q:Q,$G27)),""))</f>
         <v>Number</v>
       </c>
-      <c r="C27" s="13" t="str" cm="1">
+      <c r="C27" s="12" t="str" cm="1">
         <f t="array" ref="C27">IF(IFERROR(IFERROR(INDEX(K:K,$F27),INDEX(O:O,$G27)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F27),INDEX(O:O,$G27)),""))</f>
         <v>Longitude</v>
       </c>
-      <c r="D27" s="22" t="str" cm="1">
+      <c r="D27" s="21" t="str" cm="1">
         <f t="array" ref="D27">IF(IFERROR(IFERROR(INDEX(L:L,$F27),INDEX(R:R,$G27)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F27),INDEX(R:R,$G27)),""))</f>
@@ -4193,30 +4217,30 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="12" t="str" cm="1">
+      <c r="B28" s="11" t="str" cm="1">
         <f t="array" ref="B28">IF(IFERROR(IFERROR(INDEX(J:J,$F28),INDEX(Q:Q,$G28)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F28),INDEX(Q:Q,$G28)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C28" s="13" t="str" cm="1">
+      <c r="C28" s="12" t="str" cm="1">
         <f t="array" ref="C28">IF(IFERROR(IFERROR(INDEX(K:K,$F28),INDEX(O:O,$G28)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F28),INDEX(O:O,$G28)),""))</f>
         <v>Facility/Site County</v>
       </c>
-      <c r="D28" s="22" t="str" cm="1">
+      <c r="D28" s="21" t="str" cm="1">
         <f t="array" ref="D28">IF(IFERROR(IFERROR(INDEX(L:L,$F28),INDEX(R:R,$G28)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F28),INDEX(R:R,$G28)),""))</f>
@@ -4233,30 +4257,30 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>57</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="12" t="str" cm="1">
+      <c r="B29" s="11" t="str" cm="1">
         <f t="array" ref="B29">IF(IFERROR(IFERROR(INDEX(J:J,$F29),INDEX(Q:Q,$G29)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F29),INDEX(Q:Q,$G29)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C29" s="13" t="str" cm="1">
+      <c r="C29" s="12" t="str" cm="1">
         <f t="array" ref="C29">IF(IFERROR(IFERROR(INDEX(K:K,$F29),INDEX(O:O,$G29)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F29),INDEX(O:O,$G29)),""))</f>
         <v>Facility/Site Size</v>
       </c>
-      <c r="D29" s="22" t="str" cm="1">
+      <c r="D29" s="21" t="str" cm="1">
         <f t="array" ref="D29">IF(IFERROR(IFERROR(INDEX(L:L,$F29),INDEX(R:R,$G29)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F29),INDEX(R:R,$G29)),""))</f>
@@ -4273,30 +4297,30 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>58</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="12" t="str" cm="1">
+      <c r="B30" s="11" t="str" cm="1">
         <f t="array" ref="B30">IF(IFERROR(IFERROR(INDEX(J:J,$F30),INDEX(Q:Q,$G30)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F30),INDEX(Q:Q,$G30)),""))</f>
         <v>Plain Text</v>
       </c>
-      <c r="C30" s="13" t="str" cm="1">
+      <c r="C30" s="12" t="str" cm="1">
         <f t="array" ref="C30">IF(IFERROR(IFERROR(INDEX(K:K,$F30),INDEX(O:O,$G30)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F30),INDEX(O:O,$G30)),""))</f>
         <v>Facility/Site Size Unit</v>
       </c>
-      <c r="D30" s="22" t="str" cm="1">
+      <c r="D30" s="21" t="str" cm="1">
         <f t="array" ref="D30">IF(IFERROR(IFERROR(INDEX(L:L,$F30),INDEX(R:R,$G30)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F30),INDEX(R:R,$G30)),""))</f>
@@ -4326,23 +4350,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="12" t="str" cm="1">
+      <c r="B31" s="11" t="str" cm="1">
         <f t="array" ref="B31">IF(IFERROR(IFERROR(INDEX(J:J,$F31),INDEX(Q:Q,$G31)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F31),INDEX(Q:Q,$G31)),""))</f>
         <v/>
       </c>
-      <c r="C31" s="13" t="str" cm="1">
+      <c r="C31" s="12" t="str" cm="1">
         <f t="array" ref="C31">IF(IFERROR(IFERROR(INDEX(K:K,$F31),INDEX(O:O,$G31)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F31),INDEX(O:O,$G31)),""))</f>
         <v/>
       </c>
-      <c r="D31" s="22" t="str" cm="1">
+      <c r="D31" s="21" t="str" cm="1">
         <f t="array" ref="D31">IF(IFERROR(IFERROR(INDEX(L:L,$F31),INDEX(R:R,$G31)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F31),INDEX(R:R,$G31)),""))</f>
@@ -4372,23 +4396,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="12" t="str" cm="1">
+      <c r="B32" s="11" t="str" cm="1">
         <f t="array" ref="B32">IF(IFERROR(IFERROR(INDEX(J:J,$F32),INDEX(Q:Q,$G32)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F32),INDEX(Q:Q,$G32)),""))</f>
         <v/>
       </c>
-      <c r="C32" s="13" t="str" cm="1">
+      <c r="C32" s="12" t="str" cm="1">
         <f t="array" ref="C32">IF(IFERROR(IFERROR(INDEX(K:K,$F32),INDEX(O:O,$G32)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F32),INDEX(O:O,$G32)),""))</f>
         <v/>
       </c>
-      <c r="D32" s="22" t="str" cm="1">
+      <c r="D32" s="21" t="str" cm="1">
         <f t="array" ref="D32">IF(IFERROR(IFERROR(INDEX(L:L,$F32),INDEX(R:R,$G32)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F32),INDEX(R:R,$G32)),""))</f>
@@ -4418,23 +4442,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="12" t="str" cm="1">
+      <c r="B33" s="11" t="str" cm="1">
         <f t="array" ref="B33">IF(IFERROR(IFERROR(INDEX(J:J,$F33),INDEX(Q:Q,$G33)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(J:J,$F33),INDEX(Q:Q,$G33)),""))</f>
         <v/>
       </c>
-      <c r="C33" s="13" t="str" cm="1">
+      <c r="C33" s="12" t="str" cm="1">
         <f t="array" ref="C33">IF(IFERROR(IFERROR(INDEX(K:K,$F33),INDEX(O:O,$G33)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(K:K,$F33),INDEX(O:O,$G33)),""))</f>
         <v/>
       </c>
-      <c r="D33" s="22" t="str" cm="1">
+      <c r="D33" s="21" t="str" cm="1">
         <f t="array" ref="D33">IF(IFERROR(IFERROR(INDEX(L:L,$F33),INDEX(R:R,$G33)),"")=0,
 "",
 IFERROR(IFERROR(INDEX(L:L,$F33),INDEX(R:R,$G33)),""))</f>
@@ -4451,49 +4475,49 @@
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="13" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1">
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="14" t="s">
         <v>67</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1">
-      <c r="I35" s="15" t="s">
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="14" t="s">
         <v>68</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
-      <c r="I36" s="15" t="s">
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="14" t="s">
         <v>69</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1">
-      <c r="I37" s="15" t="s">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="14" t="s">
         <v>70</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1">
-      <c r="I38" s="15" t="s">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="14" t="s">
         <v>71</v>
       </c>
       <c r="J38" s="5"/>
